--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/57_Mardin_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/57_Mardin_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2778F0F0-9713-4B75-91AF-FC25CAFDFFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5957B16F-F14D-4FDF-9B2F-E35F202757D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{93504E9C-B0EF-4F03-9EE7-9E15A0D6245B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{78B6D44C-0743-45DA-9374-9C3B1D95DB3D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -938,14 +938,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F226741D-6936-4613-9A1F-F7BF31423B83}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F60FFF60-95AA-4E25-958D-D6664FF4331A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{99C61966-2B8F-48A5-8BAE-04BD773E0279}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F65B567B-C412-447A-B7F9-D0BAD30E8B31}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{19A58F54-757D-4241-BCC2-032B99460255}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{44AE11DD-9AF2-44BE-8BAC-382314D4ED0D}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{A563185D-F04E-473F-BA9E-E9C44FA14699}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{BD311ADF-6A15-4592-985F-CF3A18ABC589}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{50C68C8F-FE70-460D-A676-A8B03F3E6941}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0147D089-77CF-46BA-9861-B8E3399C169D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{B02E3918-6094-49C7-9A59-69A32D8994D6}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E41EA585-E88C-4E3D-990F-97D48FA32991}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{3C12AF11-716E-45B4-A399-ED0EB4B65460}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{9F1722B3-095E-45BC-A9C7-BCA5F6D2191D}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{D60FC1C1-FF4A-4915-AA35-31957AEF1EE5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{A26EEAB7-C153-4261-AF8D-F6DBD771CF95}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF9E93A-97EE-432E-AA0F-D061C32D006B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E147060F-B768-4D79-AFF8-250D36968614}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2552,18 +2552,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9694FFB7-63A7-4391-B58D-85BA735A420B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CFD2CD4-CAB3-4BE1-A8AE-0234CA5AA9F6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FA0F1C80-BF68-4D9A-910F-6222928D94EE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5716A495-2C2B-485F-9683-0FF348F86409}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9843CEFF-F265-4E2A-AB3E-E6E41F26CFCC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C4A7C7D0-3494-43D9-A2A6-3871D857E564}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADF9C0FF-3F42-458C-AE28-4EAC7CF136B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA80FE7E-6F1A-4F8C-B3D8-F7FC4C6F476F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{13CB0513-E2FF-460E-8780-CB01A1065819}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BE6A9CFA-19B6-4AB8-86D9-B50CF64D32A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98DE2285-3F4C-4FCC-BFF8-71D773C3FA70}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{924D6390-963C-44A7-A64A-E9A671FB8752}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{267C07B2-500E-430B-9B2F-7C299CF6F6D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96134587-4C29-4564-B391-0C774DDD797D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{552FE368-016B-4BDF-B60C-6EA9F96B5B65}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5D529CFE-9DAC-4396-8CE8-C32DA0989197}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DC72902-17E1-4847-9118-4AF8153F6EB7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F80F12B9-80C4-4204-AB45-ECCBFBDC4152}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6572D877-DCED-4B98-84B7-6DF90744EC96}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE0D064F-438A-4FC6-A067-32A8401CF617}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81B06573-A169-4E48-8C3E-4E136DA9EDDE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83F59C77-12C4-44C7-A492-1CABB7B2CCAB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{281C1E56-2C2F-4073-8784-B265C9C85BD2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0E45A135-6146-4AE9-AC5B-5CF2F161425D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2576,7 +2576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755132AB-FE04-483B-886D-F1864661DB5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C11F2E3-21EF-40C9-B6E6-206B74284B70}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3790,18 +3790,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1129690-9001-4E99-BA12-6AE2153930EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22755413-2711-4AA5-B9CE-894D4D7B2312}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1FA94245-F73A-4339-8E43-095C6D88583E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BD6B20AD-1E5F-4380-96E0-751F275E5661}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8D6F114-0BCD-4958-800E-F1A2D214F564}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7CC43CB-419E-462D-B372-974F99ABFB4E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CED94C5-041D-412B-856E-5F6B520E0E1C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE59BD83-5E8D-458D-B71A-9D7963E92C92}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{005A4E0C-A8A3-4FA9-8232-0C7C74A71A39}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{16BAFAA2-F4F4-4270-A22C-A2361A5B1CA5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AC78928-FD05-4C9A-A7CF-B7181563C2B3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F817003-BB66-42FB-BF99-B64BCAB68EC6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39A78DA0-46E2-4372-B99E-3A1DC7646F6C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57DE6228-9B5E-4D8C-A5CD-F48788437B70}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB745ED6-E7FD-485B-8944-4CB61708BBC2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{456E731B-B1D5-41B0-92BB-41A0F9AF3A67}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{040086D8-45F8-4464-9246-C112D2C67688}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{22731D4A-9789-4A0D-B237-9073962327E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{478F6F94-6C65-4643-A719-FCFAFF3F9416}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D40A712-BFAF-43EC-B87F-FA3846A07B17}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{746FF595-198C-4A33-93E1-F1E61E84FDAE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71B49155-450D-4450-A37D-6A73448C248F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95E4E1CC-4173-4DD3-B6AD-65C29C4AF174}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1104B7F8-95D1-4E90-9568-724CE92E5391}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3814,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A0C81B-5BAD-48F5-8ADB-8383B0DE1644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9683BCB7-AA9A-4ED0-8A96-7BD2C6BF3CAE}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5028,18 +5028,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74387B25-ABB7-4DA3-A234-2C8632E21A73}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADE32B0D-8E85-4706-A41C-185BD5A9268B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3CC6495C-6B3D-4EB9-AFC1-BE9EDCCEE327}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A59B781B-EE6E-4388-A9CD-21CC7FB29EF5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AAC1F75-503A-471F-81F0-74238F6EF1F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{89A7DE08-2911-4744-92CE-B99F7FC271CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D49BC486-560C-4115-964D-A756BAFE6911}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62ACA1B1-133A-4F1B-8401-8A36274EAA27}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{957C5B75-B470-44EB-B466-6ECBBE305D95}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A43C0313-8B8A-4D1D-A686-F19D2BAAE727}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DFF5F8D5-0F16-4125-9476-04D35A8E1BF3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{060DC873-7187-439D-BFC8-0F7BE353472E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{90B8578E-C738-4186-973B-57F2F4BB6AA9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49205E22-FF97-4ECA-A906-AF9ACE218A4A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24A0992C-AB16-4612-8020-3AFE4C8E5FBE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{324E805D-9709-402F-AA91-BEB1BA12236C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DD47B0F-977D-4C4F-AD6D-7249ED17432A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{703A3E78-09CA-488D-9C7D-6774CC5724BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE92E320-EF07-4B91-B23E-FD69A298E48E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6FB38F4-F27E-45F0-B8C2-5A2D59EA511B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{59CB93D5-5EFC-4B61-A5FD-829FF2830316}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED7B1921-0C6E-4CEC-B228-82125FEB9BBF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BB75241-DE6B-4066-BD6A-25959353EB9F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F46EA626-54FF-4F7F-9D79-1EBF82A50C9C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5052,7 +5052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8CF361-C6E2-4541-968D-CCBB4B19F103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7543E04-FB9F-4079-90CB-DEAD0BAE9FC6}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6262,18 +6262,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{501DBF85-1510-4531-A0B9-56AE3E0DEB59}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16EB91C1-4BB1-41AD-9CF5-19110754106F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0E3DE9BD-16EA-408C-A298-C177C6A74FE1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A143AD3D-6910-427E-9F73-48819756B926}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{649396CC-61D5-4AE4-9E2E-14D5DA56A4E5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04A6B14C-FAD8-405D-8BDF-94B0D168A18B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A499051B-3079-41E3-B38B-EE2EFF20B46A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B004D7F2-606F-4339-A5FF-7B47B91B4C2F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0CC9DAE4-DDD0-4B1A-83F0-272451E06741}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7AA53CE1-E85E-402F-A174-D5B8AF8256C9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7F43719-139A-4CE4-ACA7-8882DB39DD9D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18CD9BFD-D808-437A-B7B7-B7F5FC724E19}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{407B2490-509B-443C-9C4E-10FD93987614}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91EED609-6169-4E74-9786-61B303BF5669}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C78BFEA3-C0A9-4A58-8422-5E23FB95BBA9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F93B5F2C-C6D7-47C1-9AD7-9BE2B15A96F9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8948B28A-0455-4779-875C-1CEFA0FA4A77}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA319A2B-4815-497A-9B33-AFCC96574DF2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{950A8FD7-DFFB-416A-AE3C-023179FC4703}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F4AACEB-F6F1-412A-8BFD-70B8C5BA4866}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C59A15C-B663-42BA-8808-7AC98D165198}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E936BF54-0B6C-434D-84D0-486537234E4E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42801C3F-8524-45C9-9DD0-04008985ACBD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01162872-851C-4971-BF2D-287C4C503E0F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6286,7 +6286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76143212-62D5-438D-8FAE-547D4618C2FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33538D91-FEE1-4474-A880-C6CFDF3E6092}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7523,18 +7523,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F474C85-3DF6-48E3-A623-DAA809B0DAF7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0710A7C0-822C-4E11-9410-57B3E40C45A9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7CC12C27-A2E9-4B4F-84C8-E77B539C4591}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5348A749-6530-4FC8-BBF5-F46E2B8AADA1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5CA7427D-F668-4ED4-8CDA-2AAD1AA3B78C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF39E6D2-EA86-4035-A644-D1D9585DB8A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC22540F-0E80-437F-81BC-1D44D4E0C984}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D118DC3E-F0DF-4272-809F-08C69EBCD0B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D283D500-F52A-44B8-A172-B2EF70F4B01B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B722119-87B5-4549-A7A5-1F120AFBEB4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3099BEF2-1A1E-4B27-AF8D-925F701DC492}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80AAE458-3D71-4881-A35B-9CAC34C86D10}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F160A88-3509-41AB-90E1-5D8940F8BD39}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DBC0E5C-7114-47ED-B4D1-3EFC1E4D63BB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F0BE8CF4-0029-47B8-B7F7-8332B8204068}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A75C093A-1E7F-478F-A789-ABB8A9F4D837}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9D29F90A-CC99-4CAA-8E15-7525AC44796D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{718D36EB-3DD1-4CE4-80FB-30C858106662}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F31D6445-F733-4EB6-AB68-E8A7E9230231}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6467A777-50EA-4771-B732-C27DD769F7C9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{716C155B-EF3C-481E-AEC0-BEA6248DCFD3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D0B5A2B-D78C-49AD-8301-FDCBC9F6A2AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD116F24-C14F-440D-8A29-34FEE90A0AB6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F57DC22-B9E5-4DBD-A137-6B411EDE6D09}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7547,7 +7547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32256705-0108-4A4A-9B20-790CF42B3F80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F9AE57-9383-4018-96A6-B8A1F5AD176D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8780,18 +8780,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{46694FDA-1895-4619-AB4D-FDBB4F1A4268}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FFC964F-51F9-4DA5-9FF3-E254000BD3CA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{83028B37-668E-4001-913B-4B5178F242EB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4825556D-5EAE-41D6-963E-FA3EBF265EF0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E0DDF701-2AC3-4F11-881A-04C2738F874D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{488E05C6-A739-438B-8B9E-52F787A0D554}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5026D868-F252-4889-864E-2E90B861AC31}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1C9F91E-9480-4745-9E92-7DB57E822905}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DCEDD9D0-5B1B-4129-9221-5D9BED5D1CDF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98595D52-9300-469D-802D-6CC4A9BA7248}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3F92223-FEB7-4171-ADFD-5A1357EC9B5F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C28B37B-C9B0-47F3-B089-9AB758C09DFD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B96E3CE5-B65F-44F7-A720-C531F566ED51}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76CD1A2A-3314-4CF4-9F5A-9DB08502EC89}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D1567A6-82D7-45B0-9AB8-0ED7E1586235}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7059D71A-9F88-46C7-A7A9-840AD8737CAF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89474D66-73ED-4AC7-A0DA-BF1F8144C4E4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9EE33760-56B7-4A45-9EAC-7994BFE0A4B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8DF8C351-CE31-4358-AAA0-95ACB3A63134}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F022027-185C-4854-BE03-E4FDB00F3007}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{827E81C4-FEC1-41B3-81A3-061B1C7E13E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F64AA49-9990-4700-81DE-10D954372514}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E10CA83E-F742-4726-A659-44079B3F911D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE0584E6-5A0D-4777-B09A-F9A29D8311E7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8804,7 +8804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD94D0B2-4EBE-404E-B819-FDC44466EE41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C780B5-FC62-44E2-B33B-1E29C79ECEAC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10037,18 +10037,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B3EE0F1-BFF1-43FB-BF2A-9E97219EA8D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E316FA5-53F4-4604-A799-F258042EB91A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E8980D0-B762-4ED7-AADE-4CB630C8C7F1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1015C4A8-37DB-4CB0-A22A-939EDA28C0D8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22E06918-146B-4A43-8B4C-1329E791FE37}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{890FE605-7CAD-4A86-B19A-702A10D0EAC8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58384757-D6D6-4DC5-BA5B-FF33DCC04C14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15A647E6-94A2-4FFD-ACE7-C1FD8D1560E2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{995402D2-DE75-4B25-98A0-94AFFB3A4AF9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B6D5A4B3-ACF1-4D51-B4B2-C9FC68320236}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD8C418D-79E6-463D-BFBF-3DFD83AEF24F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0C44677C-0B60-4EF6-8598-D136092201D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98AB5378-6686-409B-91E6-9E2D19FF3736}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{682F541B-6A64-4416-9412-1325A140F462}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{61EC429E-0D18-453A-B901-BBA4EA7D60F7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DF0B0198-88C3-4C8F-8ABE-15D1CB84EDA8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F120E78-68F8-43F6-A38B-46CBA8317CB5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E05CCD8D-B0C2-4C9E-A1F3-E3523D02A9DC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{224AAB1B-F17E-4B00-B3CB-A30FF2FFC39F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9588C7D4-EE6F-4BA1-A1F0-49BA54BD4414}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6A83CDD6-C2C1-4348-8578-B853EEA41824}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{230F327E-E694-4DD3-9D29-F91D2C51CF72}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4C54857-5186-47EA-AA50-2E92D4A39A5C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{334949E4-7555-46B1-824B-A7F7A6477511}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10061,7 +10061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA71C14-A6CD-4C1B-867B-82E6EAA4A754}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897A12FC-11C5-4A8D-9808-110D1E506A8B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11290,18 +11290,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81FFD2FD-C904-4A72-B5DC-25DD79C8E3EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5CCF6504-04C8-45F9-9633-3D49CE4F1636}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{338649ED-9938-4538-B4E3-C3F8CB69B51F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F5085A60-9671-42EB-9092-40E544E917ED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D870F0A5-603B-4196-8B14-5261649A4A0D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7FA9718E-9ABE-4F62-9099-AAEB856DBBDE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10E16A70-10C9-479C-9CB9-A84EE605C21D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5E24792-EA95-4552-B671-6F5A8AE584EE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF3AC15D-A92B-46DE-8B1C-28626D11423B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{82B27224-87FE-4FB2-9F3D-01DB170AD298}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36DCE223-D848-4F86-8972-F3A022EDBDBF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9F89524B-730E-4427-B7B1-B1C8921961DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7395B417-47EA-4584-8264-4DC4BFDE8B91}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9C9C1D0-4837-446A-9022-1F9E2EB835F9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1287BFD3-85FB-43F5-BEBD-A5E0B0C8E9DC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C12FB95A-9971-48D8-B346-E5E152510DDA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41256E70-DAC8-424C-9F6F-187B15FCEF16}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D553E12E-BDA8-4B73-8908-AA3015D333B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F385E6AE-7AF2-41D4-9BCF-30508ACE452A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D1AC79A-FC56-4581-AFCC-2ECAED914366}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3AA2C83-10BA-4390-B713-1549A419A39C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E40C602-931A-402D-B1CA-384892CBCBF7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F85A768-82E0-4296-A503-1A4D99EC80A7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9CB68A43-AC08-4D50-85E8-C259F479E804}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11314,7 +11314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12D38D3-E8C5-4124-810A-4E42903E7D57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B65A278-C70C-428F-895E-9882B93D2C82}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12535,18 +12535,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{515521AD-3633-47E1-AC98-A4DFA494018B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4DDEAE23-89B0-4710-BC63-41F6305B91C3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{769BC9F9-6F5A-471F-AE4B-0CE024AA5EA5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16D78D2A-9C2A-4DF7-B8BC-36378A4DF89E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BD1864F2-0299-43F6-A6CE-256FCBA5ED7B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E79ACA16-300F-416F-8763-2627C4072415}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3E84E1D-F7E8-40E6-8219-6C71B93DF9BA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4F15413-C6A6-49A3-B243-8CB83E9D998D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ED149F8C-8AE4-4862-B91D-943A6D3D01A2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69610086-57CE-4609-BCF4-100794E3C653}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC5F0F0B-6DFB-435E-8143-7E8B631FD708}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EEF94D85-E72D-42AC-96F9-6C374319239E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A887A60-3202-4B17-A834-DD5C00804846}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F32F9CA1-ABA4-4BDB-BB29-21AC40992DEB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{01270EEB-9888-4E88-B781-27502A5DFC17}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E66653BD-8C5D-4152-A26C-05EBB8851539}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC539208-EFFE-4B58-A58C-6BE7AE703055}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6879A79-6A26-4023-A2E2-7C872DA626BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF9EF70C-D96B-40B5-9874-6DAFE825A74F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1674FA24-229E-4739-8865-695B843FE40A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4090EEB6-26C2-47A0-A400-84C3EB782056}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10C0D6B8-DB2B-471A-B5AD-51196E5CAA4D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{133B7CED-0605-4303-AB9E-57F15C41CA1F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{584FF0B1-6067-4A6B-9C86-5592212D820E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12559,7 +12559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1B4F7D-F227-489D-8219-DE6CF5A41425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89567D94-5F26-4B28-A4FA-99C5DE17E918}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13777,18 +13777,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84604298-8632-4055-B234-D705E4DAF28E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{402A4156-96A6-433C-80CC-0706B7BD7F90}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{210B5AA2-AA7F-4F5D-8187-47F5EF513106}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0A274904-05F3-4268-8403-AE7985318C83}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19844A94-1D77-45FB-983B-6D59785E5FB8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6C18EAA-8676-494A-90AB-3BCC2F09B223}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F584AD3-D5F0-428C-B660-9C0F6DA08B72}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{600B6AF5-485D-43CE-81F2-147AEAED5471}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{438AB261-147F-4DED-81A5-AA2A5DAD6527}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{76EF56AC-0F81-45EB-B43C-41EB512B4451}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B2407A4-6358-4D45-BDC0-B779708CF8F3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73716D0F-5DD5-4B76-A97E-0387752D5C3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5247AC17-A4A4-463F-91B6-68BE6942D76A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD6EFA34-E0AB-4D8B-835E-DCD34E0CBEE3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C84D17B2-B782-45CA-8428-81F8D5E8160C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5E087063-4BE1-4C2C-8A17-8832DD70F9DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C3BC15B-7198-44F6-908B-7BA6C52BE3C3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE384B39-7764-4E22-B907-BBF1B81DA856}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43EE1F4C-7934-42AE-81EA-5EB2D861E6A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E13F478-02A3-4213-B48D-6B94BAFA44E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2278F3E-3979-489B-84F1-5DB5EBA261A6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4F79B6B-7A0B-4374-BD08-B00DDB5CF42E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AD34F3C-1C32-48DC-AB56-46A8AC978EE0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22D2352E-0259-4CBA-8831-EEFAF94CD7DA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13801,7 +13801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529D0FA1-7B89-492F-BE1F-53371467A7E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A784CF5-4BDD-4D6B-841F-451199B138E4}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15019,18 +15019,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5E6B60B-AB70-427B-B8E6-F9FA821AE551}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED8297E5-0D07-479A-8DEF-43E1BA1EF7F0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE9E36E6-9EFE-4814-A029-15CE63E3AEE1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AF035326-D458-4DE2-A5A0-3092262BD3A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77C83839-3298-466D-AA01-CAA002480992}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A6BA606B-5A4A-4E66-9BD8-93B169C44A7A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DFA5072-42D6-452D-A21D-CC969D52D14F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{247EBB6D-9DE8-4CF3-8691-454555FA718B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CBCA1A3-5300-4AE3-891A-B0F3AA168E9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E090C829-8C06-4627-AD34-A84BAFB2242A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C73D0721-6E2F-4ECC-9716-2E446957CC2B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DF41BD5-1454-44F5-8916-127CA483F304}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{795DDEF4-9771-4155-8AB7-27723ED732CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDC52E9C-4974-4B2D-898A-4282792AE26D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF7DFB6D-7146-417F-9BE8-902DBCE7BE89}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E590BC48-8D00-4DB6-A64F-B4C60AE9F903}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6610B78B-790E-4EE5-B464-97AEC3347801}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11E8CE22-52B1-4027-8981-A0D280300A42}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{441E20A6-4287-4DFA-80B9-4B8BABA3566B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8D0E22D-1C10-4DD7-8445-603E66E57021}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BBFF7380-9CC5-4BFD-A1D1-48D5860B1CB2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D67FA583-DE08-40CC-A3C8-E50A54A20059}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{484D1107-C3F4-4EE8-929E-56F87FFE6123}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D540DBE-4840-48D6-941F-FF89C48ACDFA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15043,7 +15043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA1228D-C848-4EF9-A352-08B381B70C03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D5A8E3-5D92-4A6B-9A0E-EB98653AD2A3}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16261,18 +16261,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{43F9DDD4-308A-4636-9118-6D282A36A97B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41ED909C-8156-4EDF-9645-EF91DCE1D89D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F1EE67FA-B018-4807-9F65-9295DE7B4EE4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A4B42298-BCB9-459F-BC5E-8951FCC9FD0F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97330AF6-90E0-4158-B6A5-BD4FEBD28534}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6734684B-F633-4023-B35A-C059C2188E90}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82A51836-4E71-43B9-87CA-52E23C85843E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B883945-6F4B-4E1C-8F37-9542AF6BE165}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BCEC672-8F1B-4C66-BACB-FFF89DA2BCBD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3C770208-BA46-4760-8317-E6C827DD654B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8120D2B-30E7-4BA8-B7CC-CC5631C58F04}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4A38AFA9-5883-46BD-B43A-6CFD74EB620B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0659D424-5B93-4C7A-8BC6-151C6319FC10}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7101CC8-71B0-4343-A2C9-445F9D906A61}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{247D803D-6087-4518-8331-971AAE97172B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C6C5008A-D452-4AA7-97E7-A6C0E12B7A0C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12250619-FAFC-40BF-8063-FAA29A70B6BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E8D19D3-0AF8-4C3E-8347-98F0D69DD73D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F3EFF88-F193-483A-A791-C5C6FE5EFF21}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D9AFE98-E912-4F6E-8379-753FE694EFDB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24105480-E8A3-46AC-863F-C8C18E88C71E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{24DF9404-B65D-4596-8B5F-54FB52A3050C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{11A2D6D7-1655-4B5B-8D35-89DF29269B77}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF67A0FA-A0A2-4E1E-AFC4-1FF06EFF1D03}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
